--- a/data/outputs/OR/22.xlsx
+++ b/data/outputs/OR/22.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ44"/>
+  <dimension ref="A1:BR44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -907,6 +912,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1122,6 +1128,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1333,6 +1340,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1536,6 +1544,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1747,6 +1756,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4843587</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1966,6 +1980,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2165,6 +2180,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2368,6 +2384,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2559,6 +2576,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2770,6 +2788,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2993,6 +3012,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3200,6 +3220,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3403,6 +3424,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3602,6 +3624,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>3897888</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3809,6 +3836,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>3898429</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4008,6 +4040,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>3897748</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4215,6 +4252,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>3898138</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4422,6 +4464,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>3898176</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4621,6 +4668,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>3898261</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4828,6 +4880,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5031,6 +5084,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>6296799</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5230,6 +5288,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>2943632</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5433,6 +5496,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5640,6 +5704,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>52055280</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5843,6 +5912,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6042,6 +6112,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6249,6 +6320,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6460,6 +6532,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6659,6 +6732,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6870,6 +6944,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7073,6 +7148,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7284,6 +7360,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>6296793</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7495,6 +7576,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>6296794</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7698,6 +7784,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>6296798</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7901,6 +7992,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>3930226</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8120,6 +8216,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8327,6 +8424,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8534,6 +8632,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>2941259</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8745,6 +8848,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>2944168</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8952,6 +9060,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>2941082</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9167,6 +9280,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>3897816</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9370,6 +9488,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>3897626</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9569,6 +9692,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>3898345</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
